--- a/Jan Elaaj Workflow Rev PA4.xlsx
+++ b/Jan Elaaj Workflow Rev PA4.xlsx
@@ -2466,6 +2466,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2502,36 +2554,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2553,6 +2575,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2562,40 +2593,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2603,6 +2600,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5957,72 +5957,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="N2" s="65" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="N2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="97"/>
     </row>
     <row r="3" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
     </row>
     <row r="4" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="73"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="103"/>
     </row>
     <row r="6" spans="4:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
       <c r="M7" s="3"/>
-      <c r="Q7" s="83" t="s">
+      <c r="Q7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
     </row>
     <row r="8" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
       <c r="M8" s="3"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
     </row>
     <row r="9" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="M9" s="3"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
     </row>
     <row r="10" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -6030,9 +6030,9 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="4:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -6051,56 +6051,56 @@
     <row r="13" spans="4:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="83" t="s">
+      <c r="N13" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
     </row>
     <row r="14" spans="4:42" x14ac:dyDescent="0.25">
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
     </row>
     <row r="15" spans="4:42" x14ac:dyDescent="0.25">
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="83"/>
-      <c r="AP15" s="83"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
     </row>
     <row r="16" spans="4:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="3"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="83"/>
-      <c r="AP16" s="83"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="M17" s="3"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
     </row>
     <row r="18" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M18" s="3"/>
@@ -6134,25 +6134,25 @@
     </row>
     <row r="26" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="90" t="s">
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
@@ -6161,21 +6161,21 @@
     </row>
     <row r="27" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
@@ -6184,21 +6184,21 @@
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
@@ -6278,67 +6278,67 @@
     <row r="38" spans="6:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="6:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J40" s="74" t="s">
+      <c r="J40" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="76"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="J41" s="77"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="79"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="88"/>
     </row>
     <row r="42" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="J42" s="80"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="82"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="91"/>
     </row>
     <row r="45" spans="6:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="J45" s="74" t="s">
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="J45" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="76"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="85"/>
     </row>
     <row r="46" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="79"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="88"/>
     </row>
     <row r="47" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="82"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="91"/>
     </row>
     <row r="50" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
@@ -6347,79 +6347,79 @@
     <row r="54" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="62" t="s">
+      <c r="E56" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="57" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
     </row>
     <row r="58" spans="5:18" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
     </row>
     <row r="59" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="62" t="s">
+      <c r="E60" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="P60" s="63" t="s">
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="P60" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="93"/>
     </row>
     <row r="61" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
     </row>
     <row r="62" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
     </row>
     <row r="63" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E64" s="62" t="s">
+      <c r="E64" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="P64" s="63" t="s">
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="P64" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
     </row>
     <row r="65" spans="5:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
     </row>
     <row r="66" spans="5:18" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
     </row>
     <row r="67" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="5:18" hidden="1" x14ac:dyDescent="0.25"/>
@@ -6616,11 +6616,6 @@
     <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AN15:AP17"/>
-    <mergeCell ref="Q7:S9"/>
-    <mergeCell ref="J40:O42"/>
-    <mergeCell ref="E56:G58"/>
-    <mergeCell ref="E60:G62"/>
     <mergeCell ref="E64:G66"/>
     <mergeCell ref="P60:R62"/>
     <mergeCell ref="P64:R66"/>
@@ -6632,6 +6627,11 @@
     <mergeCell ref="N13:R17"/>
     <mergeCell ref="C26:J28"/>
     <mergeCell ref="K26:Q28"/>
+    <mergeCell ref="AN15:AP17"/>
+    <mergeCell ref="Q7:S9"/>
+    <mergeCell ref="J40:O42"/>
+    <mergeCell ref="E56:G58"/>
+    <mergeCell ref="E60:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6643,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6653,10 +6653,10 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="99" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="63" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" style="63" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.42578125" customWidth="1"/>
@@ -6672,7 +6672,7 @@
       <c r="D3" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
       <c r="D4" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="71" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       <c r="D5" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="71" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       <c r="D6" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="72" t="s">
         <v>444</v>
       </c>
       <c r="O6" s="52"/>
@@ -6726,22 +6726,22 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="O9" s="108"/>
+      <c r="O9" s="72"/>
       <c r="P9" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="71" t="s">
         <v>442</v>
       </c>
       <c r="I10" t="s">
@@ -6749,64 +6749,64 @@
       </c>
     </row>
     <row r="11" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="72" t="s">
         <v>442</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="70" t="s">
         <v>439</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="70" t="s">
         <v>439</v>
       </c>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="72" t="s">
         <v>440</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="72" t="s">
         <v>445</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="72" t="s">
         <v>459</v>
       </c>
       <c r="L12" s="50"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="72" t="s">
         <v>441</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="72" t="s">
         <v>446</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="72" t="s">
         <v>460</v>
       </c>
       <c r="L13" s="50"/>
@@ -6815,13 +6815,13 @@
       <c r="G14" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="72" t="s">
         <v>447</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="72" t="s">
         <v>461</v>
       </c>
       <c r="L14" s="50"/>
@@ -6830,39 +6830,39 @@
       <c r="G15" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="108"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G16" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="J16" s="118" t="s">
+      <c r="J16" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="120"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="108"/>
-      <c r="J17" s="116" t="s">
+      <c r="H17" s="72"/>
+      <c r="J17" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="81" t="s">
         <v>439</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="116" t="s">
+      <c r="M17" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="N17" s="117" t="s">
+      <c r="N17" s="81" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6870,24 +6870,24 @@
       <c r="D18" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="100"/>
+      <c r="E18" s="64"/>
       <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="107" t="s">
+      <c r="K18" s="71" t="s">
         <v>463</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="109" t="s">
+      <c r="N18" s="73" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6901,20 +6901,20 @@
       <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="72" t="s">
         <v>450</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="108" t="s">
+      <c r="K19" s="72" t="s">
         <v>463</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="110" t="s">
+      <c r="N19" s="74" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6928,20 +6928,20 @@
       <c r="G20" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="72" t="s">
         <v>451</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="72" t="s">
         <v>463</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="N20" s="110" t="s">
+      <c r="N20" s="74" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6955,18 +6955,18 @@
       <c r="G21" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="72"/>
       <c r="J21" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="72" t="s">
         <v>464</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="74" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6978,18 +6978,18 @@
       <c r="D22" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="62"/>
       <c r="G22" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="108"/>
+      <c r="H22" s="72"/>
       <c r="J22" s="9"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="110" t="s">
+      <c r="N22" s="74" t="s">
         <v>467</v>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       <c r="G23" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="72" t="s">
         <v>452</v>
       </c>
       <c r="J23" s="9"/>
@@ -7013,7 +7013,7 @@
       <c r="M23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="110" t="s">
+      <c r="N23" s="74" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7024,11 +7024,11 @@
       <c r="D24" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="98"/>
+      <c r="E24" s="62"/>
       <c r="G24" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="72" t="s">
         <v>454</v>
       </c>
       <c r="J24" s="9"/>
@@ -7037,7 +7037,7 @@
       <c r="M24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="74" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7048,11 +7048,11 @@
       <c r="D25" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="98"/>
+      <c r="E25" s="62"/>
       <c r="G25" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="72" t="s">
         <v>455</v>
       </c>
       <c r="J25" s="9"/>
@@ -7061,7 +7061,7 @@
       <c r="M25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="110" t="s">
+      <c r="N25" s="74" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7072,11 +7072,11 @@
       <c r="D26" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="98"/>
+      <c r="E26" s="62"/>
       <c r="G26" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="72" t="s">
         <v>456</v>
       </c>
       <c r="J26" s="9"/>
@@ -7085,7 +7085,7 @@
       <c r="M26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="110"/>
+      <c r="N26" s="74"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -7098,7 +7098,7 @@
       <c r="G27" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="72" t="s">
         <v>457</v>
       </c>
       <c r="J27" s="9"/>
@@ -7107,7 +7107,7 @@
       <c r="M27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="110" t="s">
+      <c r="N27" s="74" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7118,11 +7118,11 @@
       <c r="D28" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="62"/>
       <c r="G28" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="72" t="s">
         <v>458</v>
       </c>
       <c r="J28" s="9"/>
@@ -7131,7 +7131,7 @@
       <c r="M28" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="110"/>
+      <c r="N28" s="74"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -7140,7 +7140,7 @@
       <c r="D29" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="98"/>
+      <c r="E29" s="62"/>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
       <c r="J29" s="9"/>
@@ -7149,7 +7149,7 @@
       <c r="M29" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="N29" s="110"/>
+      <c r="N29" s="74"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
@@ -7166,7 +7166,7 @@
       <c r="M30" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="N30" s="110" t="s">
+      <c r="N30" s="74" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       <c r="F31" s="56" t="s">
         <v>413</v>
       </c>
-      <c r="G31" s="106" t="s">
+      <c r="G31" s="70" t="s">
         <v>439</v>
       </c>
       <c r="H31" s="50"/>
@@ -7189,7 +7189,7 @@
       <c r="M31" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="N31" s="110" t="s">
+      <c r="N31" s="74" t="s">
         <v>475</v>
       </c>
     </row>
@@ -7199,20 +7199,20 @@
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="72" t="s">
         <v>479</v>
       </c>
       <c r="H32" s="50"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113" t="s">
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77" t="s">
         <v>476</v>
       </c>
-      <c r="N32" s="114" t="s">
+      <c r="N32" s="78" t="s">
         <v>477</v>
       </c>
     </row>
@@ -7222,10 +7222,10 @@
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="72" t="s">
         <v>479</v>
       </c>
       <c r="H33" s="50"/>
@@ -7239,14 +7239,14 @@
       <c r="F34" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G34" s="72" t="s">
         <v>480</v>
       </c>
       <c r="H34" s="50"/>
       <c r="J34" s="56" t="s">
         <v>487</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="70" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7259,14 +7259,14 @@
       <c r="F35" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="72" t="s">
         <v>481</v>
       </c>
       <c r="H35" s="50"/>
       <c r="J35" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="K35" s="108" t="s">
+      <c r="K35" s="72" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7279,14 +7279,14 @@
       <c r="F36" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="72" t="s">
         <v>482</v>
       </c>
       <c r="H36" s="50"/>
       <c r="J36" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="K36" s="108" t="s">
+      <c r="K36" s="72" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7296,14 +7296,14 @@
       <c r="F37" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="72" t="s">
         <v>483</v>
       </c>
       <c r="H37" s="50"/>
       <c r="J37" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="K37" s="108" t="s">
+      <c r="K37" s="72" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7313,14 +7313,14 @@
       <c r="F38" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="72" t="s">
         <v>484</v>
       </c>
       <c r="H38" s="50"/>
       <c r="J38" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="K38" s="108" t="s">
+      <c r="K38" s="72" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7330,14 +7330,14 @@
       <c r="F39" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="G39" s="72" t="s">
         <v>485</v>
       </c>
       <c r="H39" s="50"/>
       <c r="J39" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="108" t="s">
+      <c r="K39" s="72" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7347,14 +7347,14 @@
       <c r="F40" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="72" t="s">
         <v>486</v>
       </c>
       <c r="H40" s="50"/>
       <c r="J40" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="K40" s="108" t="s">
+      <c r="K40" s="72" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       <c r="J41" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="K41" s="108" t="s">
+      <c r="K41" s="72" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       <c r="J42" s="51" t="s">
         <v>495</v>
       </c>
-      <c r="K42" s="108" t="s">
+      <c r="K42" s="72" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       <c r="J43" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="K43" s="108" t="s">
+      <c r="K43" s="72" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       <c r="J44" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="K44" s="108" t="s">
+      <c r="K44" s="72" t="s">
         <v>506</v>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       <c r="J45" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="K45" s="108" t="s">
+      <c r="K45" s="72" t="s">
         <v>507</v>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       <c r="J46" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="K46" s="108" t="s">
+      <c r="K46" s="72" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7440,11 +7440,11 @@
     <row r="48" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
-      <c r="H48" s="91" t="s">
+      <c r="H48" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="92"/>
-      <c r="J48" s="93"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="116"/>
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" s="50"/>
@@ -7615,11 +7615,11 @@
     </row>
     <row r="66" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="I67" s="95"/>
-      <c r="J67" s="96"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
     </row>
     <row r="68" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H68" s="6" t="s">
@@ -9965,10 +9965,10 @@
       <c r="B4" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="31" t="s">
         <v>124</v>
       </c>
